--- a/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/3_fold/135.xlsx
+++ b/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/3_fold/135.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>X_True</t>
+  </si>
+  <si>
+    <t>Y_True</t>
+  </si>
+  <si>
+    <t>Z_True</t>
+  </si>
+  <si>
+    <t>X_Pred</t>
+  </si>
+  <si>
+    <t>Y_Pred</t>
+  </si>
+  <si>
+    <t>Z_Pred</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,5809 +388,5185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>X_True</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Y_True</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Z_True</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>X_Pred</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Y_Pred</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Z_Pred</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>-12.85155124765649</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>6.351692538677443</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>-1.370714560382264</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-13.95092176535176</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-6.218573165917245</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-13.46526441891687</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>-13.54442796439772</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>6.109378471485113</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>-1.877242790418985</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-14.33317025633921</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-6.150576752437852</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-13.27214374488349</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-14.28278281760117</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>5.851159710213415</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>-2.417017858473174</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-14.72950230149052</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-6.078514174020568</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-13.15064672359223</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-14.99684009249151</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>5.601438340875541</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>-2.939030157134567</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-15.27951716904014</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-5.93322261777928</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-13.04896000680798</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-15.68355818316673</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>5.361278079251095</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>-3.441056117308111</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-15.73436162684456</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-5.816572383018714</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-12.93674575520884</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-16.3173607284661</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>5.139623535466361</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>-3.904398114096781</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-16.29816569774753</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-5.717863160721205</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>-12.66865446689312</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-16.90349670326475</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>4.934639028772012</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>-4.33289341593341</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-16.8564767296792</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-5.589331172330055</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-12.54515125500507</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-17.44979856317092</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>4.74358537898104</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>-4.732267947474185</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-17.4008128908232</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-5.458190028443218</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-12.29984645163616</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-17.96687762236568</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>4.562751578586128</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>-5.110279120767501</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-18.06244105723987</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-5.321693583003323</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-12.05056899362011</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-18.48612537873823</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>4.381159337589937</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>-5.489875722343233</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-18.60587605205635</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-5.232339311548314</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-11.75914829088915</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>-19.01867716541105</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>4.194914387656907</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>-5.879198248831043</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-19.34327917404336</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-5.052590273851852</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-11.35629131476078</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>-19.59381680950717</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>3.993775537126695</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>-6.299654671898809</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-20.03599531452269</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-4.867370324070504</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-10.95696006963173</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-20.21945982652588</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>3.774974557960723</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-6.757031637220733</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-20.77701215876783</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-4.695991963990098</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-10.56755715057496</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>-20.90244880966575</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>3.53611844639942</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>-7.256331429529406</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-21.58831091961201</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-4.50759826755421</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>-10.13439213003456</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>-21.64226405946069</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>3.277388952656489</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>-7.797174122000426</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>-22.35254525009448</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>-4.307509694785759</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>-9.840809641066452</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-22.41419461831142</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>3.007428036398677</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>-8.361494743892447</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-23.20680111537542</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-4.055221383191467</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>-9.446725610617149</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-23.20872391916346</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>2.729563848237716</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>-8.942336199159875</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-24.03661680643697</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>-3.822257451177366</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>-9.257640491596135</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-23.98764390125531</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>2.457158578558922</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>-9.511766446036777</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-24.76477278450032</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-3.554312622903039</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-9.112671702431449</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>-24.7321251934843</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>2.196797268227892</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>-10.0560202535854</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>-25.58279180077189</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>-3.347349974608623</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>-9.036148442291196</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>-25.41653509137974</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>1.957444231852639</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>-10.5563588070745</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-26.21301047147136</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-3.122029799195392</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>-8.955397615497294</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>-26.01749428037673</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>1.747275724549703</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>-10.99569063476042</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>-26.74105318313576</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>-2.959273134118637</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>-9.025415653652878</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>-26.52678610587689</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>1.569165289254415</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>-11.36800894292362</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>-27.21144389220851</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>-2.786526452127291</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>-9.055468786058382</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>-26.9222013317908</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>1.430879979175573</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>-11.6570776468826</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>-27.67414525241624</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>-2.665605754365743</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>-9.098942870080093</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>-27.20794897460404</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>1.330947809645683</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>-11.86597375242948</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>-27.87504647329252</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>-2.584835168972416</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>-9.214798721772427</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>-27.3734056580149</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>1.273084006558169</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>-11.98693102949028</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>-28.04624090467849</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>-2.523957513582923</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>-9.295718386388833</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>-27.42494727404601</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>1.255058781711669</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>-12.02461058042723</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>-28.12226039784526</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>-2.494478411672933</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>-9.361783633170528</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>-27.37483901177898</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>1.272582731552226</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>-11.98797888422057</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>-28.09904744008194</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>-2.502130086803379</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>-9.355126126091054</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>-27.22611282849464</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>1.324595514633061</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>-11.87925245633098</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>-27.9889783508515</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>-2.465817293868268</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>-9.376465902637195</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>-27.00139394430607</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>1.403184599079073</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>-11.7149714869845</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>-27.82710351897332</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>-2.470905740974575</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>-9.333021613525339</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>-26.70308263800311</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>1.507510555159259</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>-11.49689070243705</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>-27.59647286623668</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>-2.492013373415552</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>-9.240952031532668</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>-26.35000325688318</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>1.63099009894204</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>-11.23877166096849</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>-27.38362100245415</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>-2.471639788666381</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>-9.218437011320086</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>-25.95070752357022</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>1.770632506911339</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>-10.94686610811995</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>-27.07254653744524</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>-2.45753767934235</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>-9.139506984572781</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>-25.51170407985909</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>1.924161565381362</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>-10.62593219310998</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>-26.7483938395022</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>-2.463290491080184</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>-9.041226819148438</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>-25.0518921327315</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>2.084967810359748</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>-10.28978620046687</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>-26.42323582032944</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>-2.459102380786804</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>-8.88641246754996</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>-24.56774049019987</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>2.254286176535274</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>-9.935846648688706</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>-26.03626865942599</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>-2.437298709595992</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>-8.850297726262051</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>-24.07752344317698</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>2.42572574666517</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>-9.577472976774619</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>-25.61337258574569</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>-2.424184832763196</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>-8.697019467793796</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>-23.57900352920191</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>2.600069010066792</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>-9.213029485511868</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>-25.25348569940811</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>-2.427472606243648</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>-8.566050975714688</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>-23.07722657668877</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>2.775551330729389</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>-8.846204932905888</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>-24.79997261296194</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>-2.434409238153273</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>-8.459292503164271</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>-22.57451911737166</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>2.951359069872315</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>-8.478700132352392</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>-24.44543385442743</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>-2.436616132346438</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>-8.399269001991744</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>-22.06606845328137</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>3.129175332716045</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>-8.106996756095295</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>-23.96594996954727</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>-2.462288797088669</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>-8.3004492176445</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>-21.56594595526986</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>3.304079054632879</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>-7.741381694139152</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>-23.53470338979682</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>-2.498262676957876</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>-8.201235478378081</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>-21.06621764530248</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>3.47884492041181</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>-7.376054803754477</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>-23.02941173154696</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>-2.524753325805432</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>-8.146740588256138</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>-20.57984484839128</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>3.648940072613723</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>-7.020491474803063</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>-22.66366952831746</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>-2.577237339843095</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>-8.115171225993649</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>-20.10338493581803</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>3.815568473424661</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>-6.67217497005131</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>-22.23115950431887</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>-2.618101703579179</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>-8.069988900473675</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>-19.63775621414842</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>3.978408971053138</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>-6.331776618450112</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>-21.77806756595542</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>-2.689880798637598</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>-7.998024261540998</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>-19.18932610954149</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>4.135234737994546</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>-6.003951333383473</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>-21.33149210168901</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>-2.735834401332947</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>-7.994568051997999</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>-18.75396259572597</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>4.287490833762851</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>-5.685678392833936</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>-20.77595249585004</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>-2.852714273451252</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>-7.915174548875197</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>-18.34430456195672</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>4.430757163720528</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>-5.386197469674326</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>-20.38501839171587</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>-2.925899699362581</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>-7.995435414929288</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>-17.95170804381949</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>4.568056710345222</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>-5.099189384908656</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>-19.93779988414037</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>-2.999104129744897</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>-7.968682896426437</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>-17.58438736848996</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>4.696516744651977</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>-4.830659230791722</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>-19.62023611587848</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>-3.070283792114323</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>-7.938974060757018</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>-17.23760348164424</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>4.81779461707576</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>-4.577142516829428</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>-19.08132053812166</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>-3.133688250291899</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>-7.995594321115173</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>-16.90646940628435</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>4.933599409829957</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>-4.335066613506021</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>-18.74685650486314</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>-3.185196701485652</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>-8.005764317011813</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>-16.59338117089495</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>5.043093179607775</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>-4.106183139887525</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>-18.44046901045218</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>-3.273702106569985</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>-8.051953048375726</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>-16.28737568389674</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>5.150109958128558</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>-3.882477516699999</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>-17.99233122265312</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>-3.32918249219966</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>-8.051429982180521</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>-15.99340729076942</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>5.252917102954696</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>-3.667571623256431</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>-17.70979067236655</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>-3.388207211668088</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>-8.078609561057938</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>-15.69985483001752</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>5.355578787177052</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>-3.452969797599879</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>-17.39945887709491</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>-3.440167810900698</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>-8.123947482218256</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>-15.41059653241381</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>5.456738709090924</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>-3.241507224289944</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>-17.04189962639727</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>-3.461033928189571</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>-8.204685066830002</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>-15.12235134022547</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>5.55754432599243</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>-3.030785282726594</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>-16.82156672355407</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>-3.489820158761556</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>-8.239084945528569</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>-14.83158563588581</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>5.65923142084815</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>-2.818220718185811</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>-16.52463468287113</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>-3.562087827094889</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>-8.302011795139036</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>-14.54598648363218</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>5.759111659997685</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>-2.609433166813889</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>-16.36790419746566</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>-3.561105137574359</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>-8.298353642318141</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>-14.26128275286539</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>5.858678750765863</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>-2.401300214232639</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>-16.14885738124064</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>-3.595100968755182</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>-8.384057045238793</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>-13.9886773546003</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>5.954014791357437</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>-2.202011759958832</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>-15.89446582538574</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>-3.607447540071948</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>-8.459232913344563</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>-13.72576180143322</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>6.045962082234338</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>-2.009807076820973</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>-15.76505562366855</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>-3.652961664375762</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>-8.508344856419651</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>-13.48341517863083</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>6.130715970512998</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>-1.832639331192548</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>-15.59116675024801</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>-3.694429420065628</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>-8.507722473858269</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>-13.26494363104422</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>6.207120225386068</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>-1.672925483636959</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>-15.50052028603648</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>-3.732090738587736</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>-8.548551431994101</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>-13.07441898037758</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>6.273750842186942</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>-1.533642243561535</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>-15.44438532223739</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>-3.777605654744508</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>-8.582451418316237</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>-12.92340901051549</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>6.326562315136954</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>-1.423246251166388</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>-15.34094139048018</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>-3.789970438679302</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>-8.649019868019902</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>-12.81361017329046</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>6.364961358109736</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>-1.342977699292885</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>-15.23106249715807</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>-3.86353516215738</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>-8.596468268129511</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>-12.75853812650723</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>6.384221251424397</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>-1.302717223355975</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>-15.17533509601968</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>-3.881778662450285</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>-8.588420331923542</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>-12.75742927787307</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>6.384609039924074</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>-1.301906598431694</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>-15.22196479287666</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>-3.945860946759669</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>-8.631765304669221</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>-12.82206904323933</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>6.362003107194909</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>-1.349161564791302</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>-15.31890130748485</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>-4.020888222650655</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>-8.548981802914206</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>-12.95039268300334</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>6.317125537611698</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>-1.442972692443626</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>-15.39506118334585</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>-4.094807696253791</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>-8.498817106357629</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>-13.14665676969334</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>6.24848771512386</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>-1.58645175307424</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>-15.51812246450429</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>-4.154693951740218</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>-8.499336862007295</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>-13.41213624862457</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>6.155643763607515</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>-1.780530796755442</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>-15.66326005645013</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>-4.216345247469403</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>-8.415106651851618</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>-13.74346518002862</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>6.039770825453949</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>-2.022749149788548</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>-15.83715798681868</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>-4.341170572165467</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>-8.34428084058445</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>-14.14626549139579</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>5.898902790267585</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>-2.3172167279959</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>-16.13468778607063</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>-4.374995363107423</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>-8.283836900128437</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>-14.61082784482512</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>5.736435224820525</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>-2.656835510008072</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>-16.47540111345974</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>-4.465141487520151</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>-8.198093770661313</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>-15.14766107796308</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>5.548692959879833</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>-3.049287992298393</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>-16.82769374888645</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>-4.516035460818713</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>-8.185321685970804</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>-15.74536160499652</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>5.339664077585091</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>-3.486237571834239</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>-17.30575116445419</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>-4.55644054983932</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>-8.143128783072793</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>-16.41582442856176</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>5.105188636638761</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>-3.976380102417721</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>-17.75615771773109</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>-4.630949953895957</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>-8.028434932864743</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>-17.15896834938136</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>4.845295034195334</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>-4.519656223234297</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>-18.44291891489033</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>-4.71613591138153</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>-8.016579869288613</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>-17.97730778203744</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>4.559103924753254</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>-5.117904099627212</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>-19.14045788018782</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>-4.744903137482529</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>-7.912267889891717</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>-18.88377012870636</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>4.242094314427324</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>-5.780574322134652</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>-19.90756779166516</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>-4.749294753986043</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>-7.897731284428778</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>-19.8690534156088</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>3.897519305890672</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>-6.500866673343563</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>-20.8453604169656</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>-4.831021897752295</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>-7.837535634888209</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>-20.95614369907038</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>3.517340174991666</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>-7.295585133160938</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>-21.78308058668192</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>-4.85241855652284</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>-7.849423803919732</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>-22.126893825555</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>3.107903376265508</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>-8.151463206496445</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>-23.02598820519716</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>-4.837838959865305</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>-7.782146897470663</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>-23.40502841489241</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>2.660911893829517</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>-9.085844800859608</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>-24.31868639542674</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>-4.888755896899641</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>-7.880069523976766</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>-24.78839454562943</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>2.177118651170747</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>-10.09715602082756</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>-25.60490433935135</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>-4.946847021730918</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>-7.836254453764512</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>-26.27924481778392</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>1.655735865038734</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>-11.18704363193948</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>-27.24079293225222</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>-4.938198403726703</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>-8.00019266886922</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>-27.89581839927328</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>1.090384901466591</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>-12.36884139649294</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>-28.79028729803477</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>-4.912712616282493</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>-8.071717005245175</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>-29.61856596357567</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>0.487902585398677</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>-13.62825775940711</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>-30.70173353430238</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>-4.990301536491703</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>-8.218139123901599</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>-31.47546979681651</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>-0.1614970976125502</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>-14.9857491994769</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>-32.5244420581527</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>-4.971278852888402</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>-8.426332711775286</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>-33.4291910599037</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>-0.8447559429167675</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>-16.4140191203238</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>-34.57636382237526</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>-4.95779518072435</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>-8.686793192622986</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>-35.49110247246554</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>-1.565851238076955</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>-17.92138156022451</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>-36.70834447857942</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>-4.948395886116217</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>-8.964154008448666</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>-37.65429435959153</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>-2.322366519398943</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>-19.50278519429255</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>-38.90926662307636</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>-4.93487262130428</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>-9.290087148426531</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>-39.87073384022997</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>-3.097503643020508</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>-21.1231155358742</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>-41.21440933262282</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>-4.88965227444778</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>-9.684525407248536</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>-42.18034163129382</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>-3.905223752456351</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>-22.81155666576067</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>-43.52009319481321</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>-4.888082030032622</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>-9.975022467774044</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>-44.47179597549293</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>-4.706595206443001</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>-24.48672669981249</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>-45.98502537395732</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>-4.828883894766452</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>-10.34317499501424</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>-46.8474464660906</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>-5.537411885219007</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>-26.22344841251179</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>-48.35462411829196</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>-4.743389114627369</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>-10.77261565182295</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>-49.09860119045619</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>-6.32468968509343</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>-27.8691573684061</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>-50.72476175103352</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>-4.691962224288262</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>-11.09009365849352</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>-51.48663091541725</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>-7.159835651540452</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>-29.61492893300516</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>-53.17818707772414</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>-4.588470210126125</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>-11.49547327032282</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>-37.0383713424544</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>-2.106964835731735</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>-19.05251404479185</v>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>-37.11193959555552</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>-2.132693254935963</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>-19.10629619121101</v>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>-37.09234631042408</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>-2.125841056709142</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>-19.09197250014384</v>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>-36.96834369502965</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>-2.082474643388124</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>-19.00132026176141</v>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>-36.7551292936053</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>-2.007908926941332</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>-18.84544965626645</v>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>-36.46934242260995</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>-1.907963038462419</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>-18.63652487291705</v>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>-36.11690405259146</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>-1.784707670212384</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>-18.37887444326758</v>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>-35.70656749457709</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>-1.641204045559206</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>-18.07889748426695</v>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>-35.23850326430126</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>-1.477511797566201</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>-17.73671865161661</v>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>-34.70558429823744</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>-1.291138437009068</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>-17.34712769826073</v>
       </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>-34.10503713368571</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>-1.081114023621691</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>-16.90809708146551</v>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>-33.41312936340894</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>-0.8391388180955452</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>-16.40227720072929</v>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>-32.6242538198372</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>-0.5632518719004416</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>-15.82556893048462</v>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>-31.71734091192879</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>-0.2460846905033189</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>-15.16256932472378</v>
       </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>-30.69177513001546</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>0.1125779832223872</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>-14.41282841447641</v>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>-29.56138184850851</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>0.5079011149580011</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>-13.58645325379836</v>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>-28.35886761996612</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>0.9284465114683822</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>-12.70735400127574</v>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>-27.15232403109224</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>1.350401062979236</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>-11.82530908077557</v>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>-26.01211778232169</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>1.749156002930387</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>-10.99176014037691</v>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>-25.02509820721478</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>2.094338229239664</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>-10.27019847390629</v>
       </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>-24.25325025565616</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>2.36427025592961</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>-9.70593824215937</v>
       </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>-23.74064947953918</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>2.543537903269591</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>-9.331200922274865</v>
       </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>-23.50355736981123</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>2.626454173970089</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>-9.157874493785538</v>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>-23.52840871096004</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>2.617763119120859</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>-9.176042092063845</v>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>-23.78375783886476</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>2.528461971829293</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>-9.36271533230104</v>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>-24.21837776716894</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>2.376465924097246</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>-9.68044467390456</v>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>-24.77800147363047</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>2.180753334637288</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>-10.08955815494886</v>
       </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>-25.40758410974757</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>1.960574584933134</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>-10.54981518282839</v>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>-26.05471762071335</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>1.734257912327823</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>-11.022902795656</v>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>-26.67606827087184</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>1.516958067269337</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>-11.47714182180946</v>
       </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>-27.23477506458323</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>1.321566142153235</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>-11.88558499285314</v>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>-27.70278994407808</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>1.157891153202382</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>-12.22772774756474</v>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>-28.06840347033576</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>1.030028146079407</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>-12.49500988861256</v>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>-28.32474834120599</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>0.9403787658020548</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>-12.68241106775968</v>
       </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>-28.4845216086626</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>0.8845025769641539</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>-12.79921347779391</v>
       </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>-28.56194745396316</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>0.857425073813489</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>-12.85581572092259</v>
       </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>-28.57759555774064</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>0.8519525913666774</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>-12.86725528313955</v>
       </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>-28.54997660081672</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>0.8616115416851716</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>-12.84706441652776</v>
       </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>-28.49312228593008</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>0.8814947329437987</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>-12.80550101167715</v>
       </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>-28.42273801687394</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>0.9061096436332036</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>-12.75404652003956</v>
       </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>-28.34807186312853</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>0.9322220225867807</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>-12.69946175223529</v>
       </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>-28.27916057542708</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>0.9563217996393766</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>-12.64908408511849</v>
       </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>-28.21939794138144</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>0.9772220934027992</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>-12.60539455058218</v>
       </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>-28.17277034923087</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>0.99352877715244</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>-12.57130740181208</v>
       </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>-28.13911214777794</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>1.005299782717177</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>-12.54670153933144</v>
       </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>-28.11833340017175</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>1.012566562971103</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>-12.53151121471374</v>
       </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>-28.10597409428332</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>1.01688888122071</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>-12.52247593154592</v>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>-28.0954265555234</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>1.020577585075282</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>-12.51476514258416</v>
       </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>-28.0829776239718</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>1.024931247369858</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>-12.50566433848392</v>
       </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>-28.06358152453831</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>1.031714485466672</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>-12.49148480022224</v>
       </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>-28.03683108945041</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>1.04106969479713</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>-12.47192886738397</v>
       </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>-28.00191014239782</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>1.053282309979696</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>-12.44639987344556</v>
       </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>-27.9608019149049</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>1.067658751788459</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>-12.41634766183443</v>
       </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>-27.91431566528257</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>1.083916004979883</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>-12.38236384166366</v>
       </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>-27.86244873212689</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>1.102055000304849</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>-12.3444464673112</v>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>-27.80690726028245</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>1.121479061779697</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>-12.3038428177048</v>
       </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>-27.74601941633274</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>1.142772865934956</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>-12.25933069732117</v>
       </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>-27.68076408850899</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>1.165594074252231</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>-12.21162572339956</v>
       </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>-27.6094784966135</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>1.190524197154399</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>-12.15951231878154</v>
       </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>-27.53370331993302</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>1.217024425564472</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>-12.10411679863013</v>
       </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>-27.45388998702483</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>1.244936885091356</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>-12.04576918025227</v>
       </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>-27.36884607157457</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>1.27467859316842</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>-11.9835977391754</v>
       </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>-27.27987205826247</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>1.305794742000031</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>-11.91855319605061</v>
       </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>-27.18511997568069</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>1.338931607405643</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>-11.84928458949651</v>
       </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>-27.08750140639022</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>1.373070945597756</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>-11.77792043491216</v>
       </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>-26.98646305177427</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>1.40840625714432</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>-11.70405624277976</v>
       </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>-26.88361395347382</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>1.444374825165278</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>-11.62886830463109</v>
       </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>-26.77911683951439</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>1.480919740128596</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>-11.55247558295505</v>
       </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>-26.66974547634125</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>1.519169286122144</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>-11.47251953642292</v>
       </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>-26.55485613413218</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>1.559348589474499</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>-11.38852956569199</v>
       </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>-26.42944219100466</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>1.60320857481906</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>-11.29684557473168</v>
       </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>-26.29427109392083</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>1.650480849250911</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>-11.19802860642596</v>
       </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>-26.14717144326422</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>1.701924798472957</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>-11.09049125687184</v>
       </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>-25.99083312153043</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>1.756599712035516</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>-10.97619996740959</v>
       </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>-25.82887127102639</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>1.8132412959961</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>-10.85779759150766</v>
       </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>-25.66321135022598</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>1.871176175621874</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>-10.73669173754607</v>
       </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>-25.5029610411033</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>1.927219196312446</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>-10.6195405857156</v>
       </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>-25.35091650194518</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>1.980392480661021</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>-10.50838827038203</v>
       </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>-25.21263919698</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>2.028751063590603</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>-10.40730050563842</v>
       </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>-25.08576570843199</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>2.073121483733365</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>-10.31454951251073</v>
       </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>-24.96891019776658</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>2.1139883989854</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>-10.22912217232563</v>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>-24.85993075462899</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>2.152100882013007</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>-10.14945263933498</v>
       </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>-24.75224714637074</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>2.189760183381547</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>-10.07073042775373</v>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>-24.64533333173812</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>2.227150271165884</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>-9.992570974587172</v>
       </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>-24.53309792424201</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>2.266401435790495</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>-9.910521165533357</v>
       </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>-24.41742318472702</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>2.306855409673642</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>-9.825957029301359</v>
       </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>-24.29490114468624</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>2.349704033571146</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>-9.736387167040391</v>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>-24.16394482307371</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>2.395502309292874</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>-9.640651414639157</v>
       </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>-24.0270970273861</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>2.443360961717117</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>-9.540608694110047</v>
       </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>-23.884271068016</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>2.493310308086249</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>-9.436195630927193</v>
       </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>-23.74528638950227</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>2.541916274940608</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>-9.334590740029874</v>
       </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>-23.61802324661724</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>2.586422965685228</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>-9.241554889701918</v>
       </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>-23.51624894979782</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>2.622015652236943</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>-9.167152686271514</v>
       </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>-23.45112538344414</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>2.644790780700559</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>-9.119544036706909</v>
       </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>-23.43834611584484</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>2.649259968700252</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>-9.110201740102275</v>
       </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>-23.48318232732874</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>2.633579769756264</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>-9.142979298210024</v>
       </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>-23.60824008203802</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>2.589844351253431</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>-9.234402897264104</v>
       </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>-23.80068375369604</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>2.522542611047467</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>-9.375089039591368</v>
       </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>-24.10353778995333</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>2.41662796343704</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>-9.596490791502411</v>
       </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>-24.46215342218267</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>2.291212272153687</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>-9.858657114987736</v>
       </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>-24.9809785281322</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>2.109767841208733</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>-10.2379447375409</v>
       </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>-35.40538199125473</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>-1.535872920229059</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>-17.85871551505875</v>
       </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>-34.95415350199659</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>-1.378068497272779</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>-17.5288444680404</v>
       </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>-34.45128650310228</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>-1.202204963667584</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>-17.16122303591636</v>
       </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>-33.91911644411235</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>-1.016093512212951</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>-16.77217957184024</v>
       </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>-33.32854911457675</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>-0.8095592643257786</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>-16.34044472360619</v>
       </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>-32.68464370582358</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>-0.584371529318667</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>-15.86971701819157</v>
       </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>-31.97359543508892</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>-0.3357024742201757</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>-15.34990445508533</v>
       </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>-31.21844957074029</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>-0.07161153092164059</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>-14.79785430121804</v>
       </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>-30.42941978209997</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>0.2043293581308383</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>-14.22103326995876</v>
       </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>-29.6471870640801</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>0.4778931636600335</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>-13.64918124410494</v>
       </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>-28.90959841780317</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>0.7358439656942676</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>-13.10996631240538</v>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>-28.25490930840608</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>0.9648029955064629</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>-12.63135517164299</v>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>-27.73270173711877</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>1.147430348193961</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>-12.24959479435682</v>
       </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>-27.36240955483125</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>1.276929583153998</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>-11.97889231704933</v>
       </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>-27.16492281929701</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>1.345994992551657</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>-11.83451943773486</v>
       </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>-27.12139963003124</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>1.361215999050145</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>-11.80270176585807</v>
       </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>-27.2108594850363</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>1.329929940804941</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>-11.86810148404773</v>
       </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>-27.39104128593072</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>1.266916443664915</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>-11.99982357325449</v>
       </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>-27.6137232167978</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>1.189039726126437</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>-12.162615425799</v>
       </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>-27.84314591188084</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>1.108805616639743</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>-12.33033512089458</v>
       </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>-28.03646846174322</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>1.041196513598343</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>-12.471663768029</v>
       </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>-28.17534801949597</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>0.9926273097618837</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>-12.57319181028685</v>
       </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>-28.2353775132403</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>0.9716336893540621</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>-12.6170764328779</v>
       </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>-28.21376402555591</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>0.9791923963801059</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>-12.60127587067517</v>
       </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>-28.10669516936528</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>1.016636705571507</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>-12.52300307421959</v>
       </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>-27.91937327288844</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>1.082147249529412</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>-12.38606121085925</v>
       </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>-27.67028876037717</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>1.169257524478609</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>-12.20396772409108</v>
       </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>-27.37210980965222</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>1.273537192932655</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>-11.98598369822386</v>
       </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>-27.05450754425813</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>1.384609617243719</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>-11.7538002383692</v>
       </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>-26.73561134548492</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>1.496134558217842</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>-11.52067084719879</v>
       </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>-26.44295318032267</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>1.598483487809588</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>-11.30672279724463</v>
       </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>-26.19223273991859</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>1.686165882346239</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>-11.12343336372289</v>
       </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>-25.99279458987831</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>1.75591374386606</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>-10.97763390084466</v>
       </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>-25.85292475714738</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>1.804829268414128</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>-10.87538191705462</v>
       </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>-25.76161019031708</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>1.836763959749443</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>-10.80862630989456</v>
       </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>-25.71883637709637</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>1.85172289313601</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>-10.77735647013936</v>
       </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>-25.70897063530101</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>1.855173157753855</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>-10.77014410954352</v>
       </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>-25.72557324467681</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>1.849366863926035</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>-10.78228146405107</v>
       </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>-25.75662010868916</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>1.838509099895831</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>-10.80497830563398</v>
       </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>-25.79533306249449</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>1.824970337424898</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>-10.83327944997426</v>
       </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>-25.84380732081393</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>1.808017834326282</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>-10.86871660592946</v>
       </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>-25.89561456375992</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>1.789899713966709</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>-10.90659034369328</v>
       </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>-25.95849215178891</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>1.767910053003345</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>-10.95255706851425</v>
       </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>-26.02472654677238</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>1.744746443592492</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>-11.00097779048096</v>
       </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>-26.09787372762167</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>1.719165282518688</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>-11.05445211160121</v>
       </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>-26.17594972443891</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>1.691860407233141</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>-11.11152964865887</v>
       </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>-26.2634212971915</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>1.661269694563393</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>-11.17547583108116</v>
       </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>-26.36875194829902</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>1.624433273518792</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>-11.25247791093895</v>
       </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>-26.48806788199816</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>1.582705894784709</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>-11.33970394589082</v>
       </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>-26.62957391358881</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>1.533218155886157</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>-11.44315207452508</v>
       </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>-26.78537805016629</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>1.478730058498442</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>-11.5570528473843</v>
       </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>-26.95664927882412</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>1.418832782393829</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>-11.68226085367479</v>
       </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>-27.13680461586694</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>1.35582854023865</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>-11.81396359645586</v>
       </c>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>-27.32127714732787</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>1.291314481238658</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>-11.94882242861691</v>
       </c>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>-27.51160747935205</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>1.224751821896088</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>-12.08796361185068</v>
       </c>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>-27.69917682103018</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>1.159154740966048</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>-12.22508637027764</v>
       </c>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>-27.8914673121425</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>1.091906571330642</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>-12.36566052981083</v>
       </c>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>-28.08102438611656</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>1.025614337156919</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>-12.50423642195887</v>
       </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>-28.26934357545356</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>0.9597550181813401</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>-12.64190735728119</v>
       </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>-28.45438786318484</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>0.8950410035702543</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>-12.77718417244647</v>
       </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>-28.63022830687742</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>0.8335457735263706</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>-12.9057325080456</v>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>-28.79814190406683</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>0.774822734219716</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>-13.02848591442859</v>
       </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>-28.94591708848828</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>0.7231425361382007</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>-13.13651711363008</v>
       </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>-29.07729744610137</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>0.6771959657986154</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>-13.23256285798175</v>
       </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>-29.18244384939652</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>0.6404239802238603</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>-13.30943024328849</v>
       </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>-29.25908614535568</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>0.6136205013305749</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>-13.36545967187245</v>
       </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>-29.30783974497712</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>0.5965703064992349</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>-13.40110104057122</v>
       </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>-29.32433980219473</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>0.590799877393017</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>-13.41316342421899</v>
       </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>-29.31924339503789</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>0.592582201890871</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>-13.40943769057212</v>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>-29.29129170112243</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>0.6023575175767958</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>-13.38900357624349</v>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>-29.25717683276464</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>0.6142882294967819</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>-13.36406386695657</v>
       </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>-29.22076524819193</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>0.6270221530614647</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>-13.33744514093964</v>
       </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>-29.19060475288975</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>0.6375699346633338</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>-13.31539628010578</v>
       </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>-29.1770600492323</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>0.6423068123110448</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>-13.30549441069062</v>
       </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>-29.17836586587722</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>0.6418501398113163</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>-13.30644902927993</v>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>-29.20406071936917</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>0.6328640903379986</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>-13.3252332781165</v>
       </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>-29.24419952871326</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>0.618826675153711</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>-13.35457679560178</v>
       </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>-29.30197714639729</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>0.5986205848126367</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>-13.39681518190357</v>
       </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>-29.36772067717179</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>0.5756286412985291</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>-13.44487705708996</v>
       </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>-29.43762964715251</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>0.5511799530399234</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>-13.49598408085397</v>
       </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>-29.51239379545666</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>0.525033303256459</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>-13.5506404876803</v>
       </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>-29.5816830698184</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>0.5008013360424868</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>-13.60129448233039</v>
       </c>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>-29.65082577302614</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>0.4766206279509532</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>-13.65184132598895</v>
       </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>-29.7090351333905</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>0.4562635477983817</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>-13.69439533821727</v>
       </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>-29.76084969790125</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>0.4381428669282701</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>-13.73227442841847</v>
       </c>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>-29.80068805303584</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>0.4242105271199434</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>-13.76139829854765</v>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>-29.82934392747137</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>0.4141889441807981</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>-13.78234720476324</v>
       </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>-29.85317846536069</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>0.4058534875604999</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>-13.79977146798225</v>
       </c>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>-29.86663809634436</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>0.4011463616782787</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>-13.80961114493253</v>
       </c>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>-29.87899521850669</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>0.3968248071252121</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>-13.81864483168516</v>
       </c>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>-29.88229458627382</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>0.3956709464116125</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>-13.82105683785443</v>
       </c>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>-29.87738397829764</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>0.3973882928923718</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>-13.81746693288797</v>
       </c>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>-29.85497569292869</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>0.4052249579662009</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>-13.80108533302779</v>
       </c>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>-29.80638714819286</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>0.4222174295118905</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>-13.76556462787138</v>
       </c>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>-29.7272734523039</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>0.4498852107466726</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>-13.70772847984959</v>
       </c>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>-29.60527532912622</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>0.4925506095149426</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>-13.61854162754543</v>
       </c>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>-29.43946312726296</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>0.5505387451425489</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>-13.49732444835762</v>
       </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>-29.23138077651241</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>0.6233096717778834</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>-13.34520563373894</v>
       </c>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>-28.97577368090794</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>0.7127010359883053</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>-13.15834380595189</v>
       </c>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>-28.70169798378566</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>0.8085512720889306</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>-12.95798048819983</v>
       </c>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>-28.38997118756538</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>0.9175689169597735</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>-12.73009229607366</v>
       </c>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>